--- a/产品配置表格V1.0.xlsx
+++ b/产品配置表格V1.0.xlsx
@@ -44,26 +44,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>四川国寿眉山绿通VIP白金卡(标准)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿通-白金卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>I20AD9</t>
-  </si>
-  <si>
-    <t>四川国寿眉山绿通VIP白金卡(标准)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿通-白金卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,11 +144,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,165 +465,168 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="12.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="4">
+        <v>4009120120</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
-        <v>4009120120</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>